--- a/Final Project/data/data.xlsx
+++ b/Final Project/data/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
   <si>
     <t>key_category</t>
   </si>
@@ -114,10 +114,10 @@
     <t>max</t>
   </si>
   <si>
+    <t>30.12.2022</t>
+  </si>
+  <si>
     <t>27.12.2022</t>
-  </si>
-  <si>
-    <t>29.12.2022</t>
   </si>
   <si>
     <t>28.12.2022</t>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -789,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -800,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -811,7 +811,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -961,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -986,10 +986,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1000,10 +1000,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1014,10 +1014,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1028,10 +1028,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1039,13 +1039,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1056,10 +1056,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1070,10 +1070,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1084,10 +1084,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1098,9 +1098,23 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>79</v>
       </c>
     </row>
@@ -1125,6 +1139,7 @@
     <hyperlink ref="B18" r:id="rId17"/>
     <hyperlink ref="B19" r:id="rId18"/>
     <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1132,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1151,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1162,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1173,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1184,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1195,10 +1210,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1206,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1217,10 +1232,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1228,10 +1243,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1239,21 +1254,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1305,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1319,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1333,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1347,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1361,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1375,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1389,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1403,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1414,10 +1418,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1428,10 +1432,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1442,108 +1446,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
         <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1560,13 +1466,6 @@
     <hyperlink ref="B11" r:id="rId10"/>
     <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1596,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1607,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1618,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1629,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1640,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1651,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1662,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1684,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1695,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1750,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1761,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1772,7 +1671,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1783,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1794,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1805,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1837,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1991,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2005,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2047,7 +1946,7 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2061,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2075,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2103,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2117,7 +2016,133 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>132</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
